--- a/Docs/Roles.xlsx
+++ b/Docs/Roles.xlsx
@@ -47,7 +47,7 @@
     <t>Delete Project</t>
   </si>
   <si>
-    <t>Add Members to Project</t>
+    <t>Manage Project Members</t>
   </si>
   <si>
     <t>Issues</t>
@@ -96,6 +96,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -117,6 +118,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -395,13 +397,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
